--- a/Data/Metadata/Angiosperms/powo/Linderniaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Linderniaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,17 +427,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vandellia</t>
+          <t>Torenia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>diffusa</t>
+          <t>crustacea</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Cham. &amp; Schltdl.</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -450,7 +450,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vandellia_diffusa</t>
+          <t>Torenia_crustacea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -465,65 +465,10 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:262512-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:1189750-2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:262512-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Linderniaceae</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Torenia</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>crustacea</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(L.) Cham. &amp; Schltdl.</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Torenia_crustacea</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:1189750-2</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>urn:lsid:ipni.org:names:1189750-2</t>
         </is>
